--- a/newwisedata/testssh_ans/mcmc1.xlsx
+++ b/newwisedata/testssh_ans/mcmc1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,617 +434,1420 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>eta</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>wf</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pv</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pv_wise</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>wf</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dup</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ddown</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>D_wise</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>D_wiseErr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>1994 CB</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>4.05</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>178.4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="H2" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>193</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>1996 GQ</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>4.18</v>
-      </c>
-      <c r="C3" t="n">
-        <v>164.9</v>
       </c>
       <c r="D3" t="n">
         <v>0.11</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>165.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>208</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>2002 LT24</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>3.47</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="n">
         <v>164.3</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="H4" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>164</v>
+      </c>
+      <c r="J4" t="n">
+        <v>143</v>
+      </c>
+      <c r="K4" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>2008 NP3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>2.89</v>
-      </c>
-      <c r="C5" t="n">
-        <v>170.1</v>
       </c>
       <c r="D5" t="n">
         <v>0.01</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>170.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>172.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>193</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>2010 AJ30</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2.81</v>
-      </c>
-      <c r="C6" t="n">
-        <v>123.4</v>
       </c>
       <c r="D6" t="n">
         <v>0.03</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>111</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>2010 BH115</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>66.09999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>0.24</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G7" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2938</v>
+      </c>
+      <c r="K7" t="n">
+        <v>470</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>2010 CA55</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>1.67</v>
-      </c>
-      <c r="C8" t="n">
-        <v>264.6</v>
       </c>
       <c r="D8" t="n">
         <v>0.5</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>265</v>
+      </c>
+      <c r="I8" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>352</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>2010 CC55</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>1.78</v>
-      </c>
-      <c r="C9" t="n">
-        <v>164.6</v>
       </c>
       <c r="D9" t="n">
         <v>0.05</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>165.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>242</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>2010 CN141</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>1.38</v>
-      </c>
-      <c r="C10" t="n">
-        <v>196.7</v>
       </c>
       <c r="D10" t="n">
         <v>0.5</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>196.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>254</v>
+      </c>
+      <c r="K10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>2010 CO1</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>2.15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>274.3</v>
       </c>
       <c r="D11" t="n">
         <v>0.01</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>274.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>273</v>
+      </c>
+      <c r="J11" t="n">
+        <v>382</v>
+      </c>
+      <c r="K11" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>2010 DG77</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="n">
         <v>159.9</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="H12" t="n">
+        <v>160.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>315</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>2010 DH77</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>1.11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>313.2</v>
       </c>
       <c r="D13" t="n">
         <v>0.5</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>313.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>313.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>312.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>628</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>2010 FC81</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>4.99</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="n">
         <v>266.2</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="H14" t="n">
+        <v>266.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>402</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>2010 FH81</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>4.19</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="n">
         <v>204.3</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="H15" t="n">
+        <v>204.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>203.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>200</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>2010 GP67</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>4.45</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
         <v>157.7</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="H16" t="n">
+        <v>158</v>
+      </c>
+      <c r="I16" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>180</v>
+      </c>
+      <c r="K16" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>2010 GS7</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>2.63</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>209.6</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="H17" t="n">
+        <v>210.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>209.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>203</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>2010 HW81</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>1.88</v>
-      </c>
-      <c r="C18" t="n">
-        <v>319.9</v>
       </c>
       <c r="D18" t="n">
         <v>0.5</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>320.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>318.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>352</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>2010 HX107</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>4.24</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G19" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="H19" t="n">
+        <v>76</v>
+      </c>
+      <c r="I19" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>64</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>2010 HZ104</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>1.34</v>
-      </c>
-      <c r="C20" t="n">
-        <v>112.9</v>
       </c>
       <c r="D20" t="n">
         <v>0.5</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>140</v>
+      </c>
+      <c r="K20" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>2010 JN71</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="n">
         <v>141</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="H21" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>214</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>2010 JX16</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>0.36</v>
-      </c>
-      <c r="C22" t="n">
-        <v>500</v>
       </c>
       <c r="D22" t="n">
         <v>0.27</v>
       </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>500</v>
+      </c>
+      <c r="H22" t="n">
+        <v>500</v>
+      </c>
+      <c r="I22" t="n">
+        <v>500</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2877</v>
+      </c>
+      <c r="K22" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>2010 KP10</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>5</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="n">
         <v>101.8</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="H23" t="n">
+        <v>102</v>
+      </c>
+      <c r="I23" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>87</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>2010 KU7</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>4.56</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="n">
         <v>130.9</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="H24" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>102</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>2010 KX7</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>0.17</v>
-      </c>
-      <c r="C25" t="n">
-        <v>500</v>
       </c>
       <c r="D25" t="n">
         <v>0.49</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>500</v>
+      </c>
+      <c r="H25" t="n">
+        <v>500</v>
+      </c>
+      <c r="I25" t="n">
+        <v>500</v>
+      </c>
+      <c r="J25" t="n">
+        <v>212</v>
+      </c>
+      <c r="K25" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>2010 LJ68</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>2.15</v>
-      </c>
-      <c r="C26" t="n">
-        <v>220.6</v>
       </c>
       <c r="D26" t="n">
         <v>0.5</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>221</v>
+      </c>
+      <c r="I26" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>193</v>
+      </c>
+      <c r="K26" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>2010 LK68</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>2.17</v>
-      </c>
-      <c r="C27" t="n">
-        <v>181.8</v>
       </c>
       <c r="D27" t="n">
         <v>0.5</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>182.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>181.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>236</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>2010 LL68</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>2.6</v>
-      </c>
-      <c r="C28" t="n">
-        <v>170.6</v>
       </c>
       <c r="D28" t="n">
         <v>0.5</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>171</v>
+      </c>
+      <c r="I28" t="n">
+        <v>170.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>153</v>
+      </c>
+      <c r="K28" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>2010 LV108</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>2.44</v>
-      </c>
-      <c r="C29" t="n">
-        <v>201.6</v>
       </c>
       <c r="D29" t="n">
         <v>0.5</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>202.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>201.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>234</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>2010 NS36</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>0.03</v>
-      </c>
-      <c r="C30" t="n">
-        <v>71.40000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>0.24</v>
       </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G30" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>72</v>
+      </c>
+      <c r="I30" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3107</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1060</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>2010 NY65</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>4.18</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="n">
         <v>209.9</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="H31" t="n">
+        <v>210.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>209.1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>228</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>2010 OH126</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>5</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G32" t="n">
         <v>151.1</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="H32" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>218</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>2010 PU66</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>5</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G33" t="n">
         <v>170.4</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="H33" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>170.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>180</v>
+      </c>
+      <c r="K33" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>2010 PW58</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G34" t="n">
         <v>188.6</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="H34" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>213</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>2010 XP69</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>0.17</v>
-      </c>
-      <c r="C35" t="n">
-        <v>162</v>
       </c>
       <c r="D35" t="n">
         <v>0.28</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>162</v>
+      </c>
+      <c r="H35" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>273</v>
+      </c>
+      <c r="K35" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>2014 FD7</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>1.9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>349.9</v>
       </c>
       <c r="D36" t="n">
         <v>0.5</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>349.9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>350.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>349.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>360</v>
+      </c>
+      <c r="K36" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>2015 TF</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>5</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G37" t="n">
         <v>263.2</v>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
+      <c r="H37" t="n">
+        <v>263.8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>2016 UH101</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>5</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="n">
         <v>139.6</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="H38" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>67</v>
+      </c>
+      <c r="K38" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
